--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_10_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_10_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1224941.117918351</v>
+        <v>1304934.689410574</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10546703.30828607</v>
+        <v>11268677.0808175</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3448912.590521255</v>
+        <v>4171427.157673263</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10020720.88503746</v>
+        <v>9726458.754014993</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>46.77696091516081</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.5421852323552</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>321.4445460497482</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>142.6021976885364</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>39.27782560798097</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>168.9014844423999</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>215.3890319462626</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>320.7853336356113</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.4015386470044</v>
+        <v>136.0669836643704</v>
       </c>
       <c r="H3" t="n">
-        <v>103.1379148826102</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>56.96447779782407</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>41.67253645345405</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S3" t="n">
-        <v>40.20555224307678</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>196.3678942369554</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8794098101718</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.1493549835993</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2012562135807</v>
+        <v>133.6595043968611</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>37.52575377379218</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.03349882013038</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>1.516907395885057</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>322.746330060848</v>
       </c>
       <c r="G5" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1026,7 +1028,7 @@
         <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>124.4794124287242</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
         <v>225.8573996139459</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>18.05435576286319</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>2.647831330665592</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>85.22092285818857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>412.0074333304192</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>305.7267681340464</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>83.43367498914976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>224.8228627310752</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.580373985511</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>95.20719302029249</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>28.69192256658256</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>138.9335598864791</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>193.0580243952342</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8253858192841</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>110.998172009944</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.0242238421224</v>
       </c>
       <c r="V10" t="n">
-        <v>196.4017961483592</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1388,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>201.6622187863191</v>
+        <v>201.66221878632</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>111.9187566128682</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>52.23490948285971</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>156.6414918632571</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1616,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1658,16 +1660,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>88.01624809068203</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>153.4696656457188</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>173.5578851713665</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>142.6955872305736</v>
       </c>
       <c r="Y19" t="n">
-        <v>126.0955237083907</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0.2901074925135481</v>
+        <v>9.099193441180377</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2141,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2254,10 +2256,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>114.2656173771023</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2333,10 +2335,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>168.1158122680966</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>77.31354443380542</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>304.9199054952864</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>329.8895335504457</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>74.75769145492396</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>171.374127282282</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,16 +2851,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>199.2130615149916</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>336.9049854834706</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.75769145492396</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>278.1928842951685</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>147.6364325960786</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>133.6678680078468</v>
       </c>
       <c r="E34" t="n">
-        <v>77.31354443380542</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3272,13 +3274,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3317,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>188.6059442291521</v>
+        <v>32.97950884736154</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>77.31354443380461</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3509,10 +3511,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>194.237792851779</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>107.9784290126196</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,22 +3711,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>87.83762944231115</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>284.7781523974822</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>260.8334463828066</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>107.1942354675578</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>224.3548762208283</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -4031,19 +4033,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>79.76470074482832</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -4153,7 +4155,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>61.83721437613772</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1781.723863032421</v>
+        <v>1584.785973918528</v>
       </c>
       <c r="C2" t="n">
-        <v>1781.723863032421</v>
+        <v>1584.785973918528</v>
       </c>
       <c r="D2" t="n">
-        <v>1734.474407562562</v>
+        <v>1584.785973918528</v>
       </c>
       <c r="E2" t="n">
-        <v>1348.686154964317</v>
+        <v>1198.997721320284</v>
       </c>
       <c r="F2" t="n">
-        <v>937.7002501747099</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="G2" t="n">
-        <v>519.9808711521289</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H2" t="n">
-        <v>195.2894104958176</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>51.2467865680031</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K2" t="n">
-        <v>375.971156395174</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L2" t="n">
-        <v>831.0970788009633</v>
+        <v>616.7309383942948</v>
       </c>
       <c r="M2" t="n">
-        <v>1354.118906327295</v>
+        <v>1248.448749377606</v>
       </c>
       <c r="N2" t="n">
-        <v>1870.971776279676</v>
+        <v>1875.756417437453</v>
       </c>
       <c r="O2" t="n">
-        <v>2313.833647323193</v>
+        <v>2045.925442754412</v>
       </c>
       <c r="P2" t="n">
-        <v>2562.339328400155</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q2" t="n">
-        <v>2562.339328400155</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2522.664757078962</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S2" t="n">
-        <v>2352.057197036134</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T2" t="n">
-        <v>2134.492518302535</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U2" t="n">
-        <v>2134.492518302535</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.492518302535</v>
+        <v>2311.020387449722</v>
       </c>
       <c r="W2" t="n">
-        <v>1781.723863032421</v>
+        <v>1958.251732179608</v>
       </c>
       <c r="X2" t="n">
-        <v>1781.723863032421</v>
+        <v>1584.785973918528</v>
       </c>
       <c r="Y2" t="n">
-        <v>1781.723863032421</v>
+        <v>1584.785973918528</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>979.9051590217183</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C3" t="n">
-        <v>805.4521297405913</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D3" t="n">
-        <v>656.5177200793401</v>
+        <v>642.7351650238405</v>
       </c>
       <c r="E3" t="n">
-        <v>497.2802650738845</v>
+        <v>483.497710018385</v>
       </c>
       <c r="F3" t="n">
-        <v>350.7457071007694</v>
+        <v>336.96315204527</v>
       </c>
       <c r="G3" t="n">
-        <v>212.9663751340983</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H3" t="n">
-        <v>108.7866631314618</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>138.6140103893148</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>414.559354661417</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L3" t="n">
-        <v>847.0063200926634</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M3" t="n">
-        <v>1403.630753185613</v>
+        <v>1527.036213178646</v>
       </c>
       <c r="N3" t="n">
-        <v>1542.550313174333</v>
+        <v>1746.206884640153</v>
       </c>
       <c r="O3" t="n">
-        <v>2013.183172358962</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P3" t="n">
-        <v>2373.904465903015</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R3" t="n">
-        <v>2520.24585723505</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S3" t="n">
-        <v>2479.634188302649</v>
+        <v>2464.467288245464</v>
       </c>
       <c r="T3" t="n">
-        <v>2281.282779982492</v>
+        <v>2267.477992405552</v>
       </c>
       <c r="U3" t="n">
-        <v>2053.121759972217</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V3" t="n">
-        <v>1817.969651740475</v>
+        <v>1804.187096684975</v>
       </c>
       <c r="W3" t="n">
-        <v>1563.732295012273</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X3" t="n">
-        <v>1355.88079480674</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y3" t="n">
-        <v>1148.120496041786</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>405.9548397336011</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="C4" t="n">
-        <v>405.9548397336011</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="D4" t="n">
-        <v>405.9548397336011</v>
+        <v>613.3667851643016</v>
       </c>
       <c r="E4" t="n">
-        <v>258.041746151208</v>
+        <v>613.3667851643016</v>
       </c>
       <c r="F4" t="n">
-        <v>258.041746151208</v>
+        <v>466.4768376663912</v>
       </c>
       <c r="G4" t="n">
-        <v>89.15158835971238</v>
+        <v>331.4672372655215</v>
       </c>
       <c r="H4" t="n">
-        <v>89.15158835971238</v>
+        <v>177.2125941652866</v>
       </c>
       <c r="I4" t="n">
-        <v>89.15158835971238</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J4" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>120.0339457842564</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L4" t="n">
-        <v>263.5842615939952</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M4" t="n">
-        <v>425.3270654704127</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N4" t="n">
-        <v>588.6586034054443</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O4" t="n">
-        <v>723.5054191494238</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P4" t="n">
-        <v>815.3694832967907</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q4" t="n">
-        <v>795.1336259027196</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R4" t="n">
-        <v>795.1336259027196</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S4" t="n">
-        <v>795.1336259027196</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T4" t="n">
-        <v>795.1336259027196</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U4" t="n">
-        <v>795.1336259027196</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V4" t="n">
-        <v>540.4491376968327</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="W4" t="n">
-        <v>540.4491376968327</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="X4" t="n">
-        <v>540.4491376968327</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="Y4" t="n">
-        <v>540.4491376968327</v>
+        <v>763.4834245766374</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1584.864070639731</v>
+        <v>1908.811563449448</v>
       </c>
       <c r="C5" t="n">
-        <v>1584.864070639731</v>
+        <v>1539.849046509037</v>
       </c>
       <c r="D5" t="n">
-        <v>1583.331840946918</v>
+        <v>1181.583347902286</v>
       </c>
       <c r="E5" t="n">
-        <v>1197.543588348674</v>
+        <v>795.795095304042</v>
       </c>
       <c r="F5" t="n">
-        <v>786.5576835590662</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G5" t="n">
-        <v>369.4699017954936</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
-        <v>72.4810365613864</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>475.9481495814319</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L5" t="n">
-        <v>1028.761407827631</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M5" t="n">
-        <v>1619.144189752227</v>
+        <v>1314.858658882597</v>
       </c>
       <c r="N5" t="n">
-        <v>2246.451857812074</v>
+        <v>1942.166326942443</v>
       </c>
       <c r="O5" t="n">
-        <v>2416.620883129033</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P5" t="n">
-        <v>2527.35520837856</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q5" t="n">
-        <v>2562.339328400155</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2406.124290896983</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T5" t="n">
-        <v>2191.324429164694</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U5" t="n">
-        <v>1937.632725909845</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V5" t="n">
-        <v>1937.632725909845</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="W5" t="n">
-        <v>1584.864070639731</v>
+        <v>2282.277321710528</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.864070639731</v>
+        <v>1908.811563449448</v>
       </c>
       <c r="Y5" t="n">
-        <v>1584.864070639731</v>
+        <v>1908.811563449448</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.6684709946088</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C6" t="n">
-        <v>790.2154417134818</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D6" t="n">
-        <v>641.2810320522306</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E6" t="n">
-        <v>482.0435770467751</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F6" t="n">
-        <v>335.5090190736601</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G6" t="n">
-        <v>198.067621432882</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768661</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>169.9060384248988</v>
+        <v>89.49481119935454</v>
       </c>
       <c r="K6" t="n">
-        <v>499.3344427307086</v>
+        <v>157.1026308627116</v>
       </c>
       <c r="L6" t="n">
-        <v>1003.695982596827</v>
+        <v>661.4641707288301</v>
       </c>
       <c r="M6" t="n">
-        <v>1183.193318951432</v>
+        <v>1302.009520195935</v>
       </c>
       <c r="N6" t="n">
-        <v>1381.850060604097</v>
+        <v>1954.183399498644</v>
       </c>
       <c r="O6" t="n">
-        <v>1907.658103858851</v>
+        <v>2503.619408251367</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339687</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R6" t="n">
-        <v>2541.227428802342</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S6" t="n">
-        <v>2391.760639664977</v>
+        <v>2464.467288245464</v>
       </c>
       <c r="T6" t="n">
-        <v>2266.023859433942</v>
+        <v>2267.477992405552</v>
       </c>
       <c r="U6" t="n">
-        <v>2037.885071945108</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V6" t="n">
-        <v>1802.732963713365</v>
+        <v>1804.187096684975</v>
       </c>
       <c r="W6" t="n">
-        <v>1548.495606985163</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X6" t="n">
-        <v>1340.644106779631</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y6" t="n">
-        <v>1132.883808014677</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>536.0872902500015</v>
+        <v>371.7200978971207</v>
       </c>
       <c r="C7" t="n">
-        <v>367.1511073220946</v>
+        <v>371.7200978971207</v>
       </c>
       <c r="D7" t="n">
-        <v>217.0344679097588</v>
+        <v>371.7200978971207</v>
       </c>
       <c r="E7" t="n">
-        <v>69.12137432736571</v>
+        <v>371.7200978971207</v>
       </c>
       <c r="F7" t="n">
-        <v>69.12137432736571</v>
+        <v>224.8301503992104</v>
       </c>
       <c r="G7" t="n">
-        <v>69.12137432736571</v>
+        <v>224.8301503992104</v>
       </c>
       <c r="H7" t="n">
-        <v>69.12137432736571</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="I7" t="n">
-        <v>69.12137432736571</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="J7" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K7" t="n">
-        <v>152.2947161636129</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1277110644313</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M7" t="n">
-        <v>542.3973117836692</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N7" t="n">
-        <v>748.2206766197735</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O7" t="n">
-        <v>922.3155720083723</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P7" t="n">
-        <v>1047.763148606988</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q7" t="n">
-        <v>1051.181468027348</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>1032.944745034557</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S7" t="n">
-        <v>825.5044602869621</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T7" t="n">
-        <v>825.5044602869621</v>
+        <v>842.5207391496806</v>
       </c>
       <c r="U7" t="n">
-        <v>825.5044602869621</v>
+        <v>553.3685627273604</v>
       </c>
       <c r="V7" t="n">
-        <v>825.5044602869621</v>
+        <v>553.3685627273604</v>
       </c>
       <c r="W7" t="n">
-        <v>536.0872902500015</v>
+        <v>553.3685627273604</v>
       </c>
       <c r="X7" t="n">
-        <v>536.0872902500015</v>
+        <v>553.3685627273604</v>
       </c>
       <c r="Y7" t="n">
-        <v>536.0872902500015</v>
+        <v>553.3685627273604</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1416.181083656474</v>
+        <v>1631.213004202249</v>
       </c>
       <c r="C8" t="n">
-        <v>1416.181083656474</v>
+        <v>1631.213004202249</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>1272.947305595499</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>1272.947305595499</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>861.9614008058911</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>445.7922762297101</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>136.9773589225924</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>150.3534493702414</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>668.3517544708416</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>949.7664816287984</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1294.564025849033</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1649.554563188318</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>1971.426800003858</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2502.831387976891</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270159</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926588</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="W8" t="n">
-        <v>1416.181083656474</v>
+        <v>2407.952176242183</v>
       </c>
       <c r="X8" t="n">
-        <v>1416.181083656474</v>
+        <v>2407.952176242183</v>
       </c>
       <c r="Y8" t="n">
-        <v>1416.181083656474</v>
+        <v>2017.812844266371</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>943.9608659781235</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>769.5078366969965</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>620.5734270357452</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>461.3359720302897</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>314.8014140571746</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>177.8515413445372</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>81.68265950585787</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>216.8743753499452</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>362.2732189654714</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458213</v>
+        <v>872.8199296671066</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1174.380102584083</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1498.330320873618</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1772.46168659758</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2288.421350149431</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2580.628951879125</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2580.628951879125</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2440.292022700863</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2245.283917251132</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2017.177466928622</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1782.02535869688</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1527.788001968678</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1319.936501763145</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1112.176202998191</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.2127024906389</v>
+        <v>164.8202852062229</v>
       </c>
       <c r="C10" t="n">
-        <v>349.2765195627319</v>
+        <v>164.8202852062229</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>164.8202852062229</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>164.8202852062229</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>164.8202852062229</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>164.8202852062229</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>164.8202852062229</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>63.73618496959461</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>211.7073526842329</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>456.585937271952</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>725.1651933031155</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>992.7928513518651</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1223.974014837072</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1398.268755749894</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1435.506319795792</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1435.506319795792</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1435.506319795792</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1435.506319795792</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1157.704073490618</v>
       </c>
       <c r="V10" t="n">
-        <v>1438.060467399387</v>
+        <v>903.019585284731</v>
       </c>
       <c r="W10" t="n">
-        <v>1148.643297362426</v>
+        <v>613.6024152477704</v>
       </c>
       <c r="X10" t="n">
-        <v>920.6537464644088</v>
+        <v>385.6128643497531</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.8611673208786</v>
+        <v>164.8202852062229</v>
       </c>
     </row>
     <row r="11">
@@ -5036,31 +5038,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5109,10 +5111,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5121,10 +5123,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>590.8070661251686</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="C13" t="n">
-        <v>590.8070661251686</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="D13" t="n">
-        <v>590.8070661251686</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="E13" t="n">
-        <v>590.8070661251686</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="G13" t="n">
         <v>310.0549803959803</v>
@@ -5194,19 +5196,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,10 +5220,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
         <v>1645.778206672847</v>
@@ -5233,16 +5235,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621292</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251686</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X13" t="n">
-        <v>590.8070661251686</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y13" t="n">
-        <v>590.8070661251686</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1150.146566788942</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C14" t="n">
-        <v>1150.146566788942</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D14" t="n">
-        <v>791.8808681821918</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>406.0926155839475</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
         <v>406.0926155839475</v>
@@ -5279,7 +5281,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5306,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>3126.409852034566</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450753</v>
+        <v>3126.409852034566</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180639</v>
+        <v>3126.409852034566</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.509627919559</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943747</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
         <v>2407.411984886741</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5458,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1844.338003964587</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C17" t="n">
-        <v>1475.375487024175</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D17" t="n">
-        <v>1475.375487024175</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>1089.587234425931</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>678.601329636323</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>263.5288794813195</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5546,19 +5548,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>3150.294826486578</v>
       </c>
       <c r="V17" t="n">
-        <v>2994.5429342656</v>
+        <v>3150.294826486578</v>
       </c>
       <c r="W17" t="n">
-        <v>2994.5429342656</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X17" t="n">
-        <v>2621.07717600452</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y17" t="n">
-        <v>2230.937844028708</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.4482993600903</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218342</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218342</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5695,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U19" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V19" t="n">
-        <v>880.2242361621296</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W19" t="n">
-        <v>590.8070661251691</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="X19" t="n">
-        <v>362.8175152271517</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y19" t="n">
-        <v>235.4482993600903</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1590.514489367197</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C20" t="n">
-        <v>1221.551972426786</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
-        <v>863.2862738200351</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>477.498021221791</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218342</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
         <v>66.51211643218342</v>
@@ -5780,22 +5782,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.312783737945</v>
+        <v>3316.41471712313</v>
       </c>
       <c r="U20" t="n">
-        <v>3071.782307011781</v>
+        <v>3062.884240396966</v>
       </c>
       <c r="V20" t="n">
-        <v>2740.71941966821</v>
+        <v>2731.821353053395</v>
       </c>
       <c r="W20" t="n">
-        <v>2740.71941966821</v>
+        <v>2379.052697783281</v>
       </c>
       <c r="X20" t="n">
-        <v>2367.25366140713</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="Y20" t="n">
-        <v>1977.114329431319</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="21">
@@ -5835,7 +5837,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2489.924953962485</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C22" t="n">
-        <v>2320.988771034578</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D22" t="n">
-        <v>2170.872131622242</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.959038039849</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>1876.069090541939</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>3120.355548834272</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>3120.355548834272</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U22" t="n">
-        <v>3120.355548834272</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V22" t="n">
-        <v>3120.355548834272</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W22" t="n">
-        <v>3120.355548834272</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X22" t="n">
-        <v>2892.365997936255</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y22" t="n">
-        <v>2671.573418792725</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690174</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749762</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143012</v>
+        <v>1448.172675760995</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544768</v>
+        <v>1062.384423162751</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551604</v>
+        <v>651.3985183731431</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001573</v>
+        <v>236.3260682181396</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>932.5990189467736</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1797.117834600128</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>2330.649739272053</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2877.428556330835</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.39320666029</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946814</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331035</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604872</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261301</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991187</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730107</v>
+        <v>2952.140063348091</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1120.662598458018</v>
+        <v>1783.876212293104</v>
       </c>
       <c r="C25" t="n">
-        <v>951.7264155301116</v>
+        <v>1614.940029365197</v>
       </c>
       <c r="D25" t="n">
-        <v>801.6097761177758</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353827</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>3247.511332282094</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.343466104704</v>
+        <v>2958.408465407738</v>
       </c>
       <c r="V25" t="n">
-        <v>1956.343466104704</v>
+        <v>2703.723977201851</v>
       </c>
       <c r="W25" t="n">
-        <v>1751.093193329805</v>
+        <v>2414.30680716489</v>
       </c>
       <c r="X25" t="n">
-        <v>1523.103642431788</v>
+        <v>2186.317256266873</v>
       </c>
       <c r="Y25" t="n">
-        <v>1302.311063288258</v>
+        <v>1965.524677123343</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2020.852269386381</v>
+        <v>2196.097994299123</v>
       </c>
       <c r="C26" t="n">
-        <v>1651.88975244597</v>
+        <v>1827.135477358712</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.624053839219</v>
+        <v>1468.869778751961</v>
       </c>
       <c r="E26" t="n">
-        <v>907.8358012409749</v>
+        <v>1083.081526153717</v>
       </c>
       <c r="F26" t="n">
-        <v>496.8498964513673</v>
+        <v>672.0956213641095</v>
       </c>
       <c r="G26" t="n">
-        <v>81.77744629636371</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>81.77744629636371</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77744629636371</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>270.6565772553892</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>925.3799093906887</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L26" t="n">
-        <v>1376.414122639098</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1909.946027311022</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N26" t="n">
-        <v>2456.724844369804</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2959.697315249141</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3673.052402696087</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>4029.855248261383</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>4088.872314818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>4088.872314818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>4088.872314818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>3835.341838092022</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V26" t="n">
-        <v>3504.278950748451</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W26" t="n">
-        <v>3171.057199687395</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X26" t="n">
-        <v>2797.591441426315</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="Y26" t="n">
-        <v>2407.452109450503</v>
+        <v>2582.697834363245</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.8091843452888</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>782.3561550641618</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>633.4217454029106</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>474.1842903974551</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>327.6497324243401</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>191.2866322569582</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>100.7847378948258</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>81.77744629636371</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>175.454715786981</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
-        <v>413.7189147673282</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>780.4170750799935</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
-        <v>1227.693400302309</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1701.216443856764</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.177723274819</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.677314750922</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>2580.318872397521</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2580.174518990037</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.736632483517</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>2258.093632161372</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2030.025785295788</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>1794.873677064045</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>1540.636320335843</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.784820130311</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1125.024521365357</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2228.089883161876</v>
+        <v>1905.843617815308</v>
       </c>
       <c r="C28" t="n">
-        <v>2228.089883161876</v>
+        <v>1905.843617815308</v>
       </c>
       <c r="D28" t="n">
-        <v>2228.089883161876</v>
+        <v>1905.843617815308</v>
       </c>
       <c r="E28" t="n">
-        <v>2228.089883161876</v>
+        <v>1757.930524232915</v>
       </c>
       <c r="F28" t="n">
-        <v>2228.089883161876</v>
+        <v>1611.040576735004</v>
       </c>
       <c r="G28" t="n">
-        <v>2228.089883161876</v>
+        <v>1611.040576735004</v>
       </c>
       <c r="H28" t="n">
-        <v>2228.089883161876</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I28" t="n">
-        <v>2228.089883161876</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J28" t="n">
-        <v>2273.212515608811</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K28" t="n">
-        <v>2477.199698557688</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L28" t="n">
-        <v>2793.759497006184</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M28" t="n">
-        <v>3137.916542605733</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N28" t="n">
-        <v>3479.324919311598</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O28" t="n">
-        <v>3778.654518232011</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P28" t="n">
-        <v>4011.26201866567</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q28" t="n">
-        <v>4088.872314818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R28" t="n">
-        <v>3999.041857575713</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S28" t="n">
-        <v>3807.355973402539</v>
+        <v>3133.919937435998</v>
       </c>
       <c r="T28" t="n">
-        <v>3585.589357972065</v>
+        <v>2912.153322005524</v>
       </c>
       <c r="U28" t="n">
-        <v>3296.486491097709</v>
+        <v>2623.050455131167</v>
       </c>
       <c r="V28" t="n">
-        <v>3041.802002891822</v>
+        <v>2368.365966925281</v>
       </c>
       <c r="W28" t="n">
-        <v>2752.384832854862</v>
+        <v>2078.94879688832</v>
       </c>
       <c r="X28" t="n">
-        <v>2524.395281956844</v>
+        <v>1905.843617815308</v>
       </c>
       <c r="Y28" t="n">
-        <v>2303.602702813314</v>
+        <v>1905.843617815308</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2020.852269386381</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C29" t="n">
-        <v>1651.88975244597</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.624053839219</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E29" t="n">
-        <v>907.8358012409749</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F29" t="n">
-        <v>496.8498964513673</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
-        <v>81.77744629636371</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>81.77744629636371</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77744629636371</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>438.0622262757422</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>771.8815999655887</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.915813213998</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1756.447717885922</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2303.226534944704</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2806.199005824041</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3506.317790078142</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3964.79599258713</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>4088.872314818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3978.58164634528</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3978.58164634528</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>3725.051169619117</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V29" t="n">
-        <v>3523.825854957509</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W29" t="n">
-        <v>3171.057199687395</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="X29" t="n">
-        <v>2797.591441426315</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="Y29" t="n">
-        <v>2407.452109450503</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.8091843452888</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>782.3561550641618</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>633.4217454029106</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>474.1842903974551</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>327.6497324243401</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>191.2866322569582</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>100.7847378948258</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>81.77744629636371</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>175.454715786981</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>413.7189147673282</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>780.4170750799935</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
-        <v>1227.693400302309</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1701.216443856764</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.177723274819</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.677314750922</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2580.318872397521</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>2580.174518990037</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.736632483517</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
-        <v>2258.093632161372</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2030.025785295788</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.873677064045</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.636320335843</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.784820130311</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1125.024521365357</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2228.089883161876</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C31" t="n">
-        <v>2228.089883161876</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D31" t="n">
-        <v>2228.089883161876</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E31" t="n">
-        <v>2228.089883161876</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F31" t="n">
-        <v>2228.089883161876</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>2228.089883161876</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>2228.089883161876</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>2228.089883161876</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>2273.212515608811</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K31" t="n">
-        <v>2477.199698557688</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L31" t="n">
-        <v>2793.759497006184</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>3137.916542605733</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N31" t="n">
-        <v>3479.324919311598</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>3778.654518232011</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>4011.26201866567</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>4088.872314818185</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>3999.041857575713</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>3807.355973402539</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>3585.589357972065</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U31" t="n">
-        <v>3296.486491097709</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V31" t="n">
-        <v>3041.802002891822</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W31" t="n">
-        <v>2752.384832854862</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X31" t="n">
-        <v>2524.395281956844</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y31" t="n">
-        <v>2303.602702813314</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2360.432768538145</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C32" t="n">
-        <v>1991.470251597734</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="D32" t="n">
-        <v>1633.204552990983</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="E32" t="n">
-        <v>1247.416300392739</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
-        <v>836.4303956031313</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>421.3579454481277</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>123.774345056895</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77744629636371</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>438.0622262757422</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>771.8815999655887</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.915813213998</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1756.447717885922</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2303.226534944704</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2806.199005824041</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3519.554093270987</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3978.032295779975</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>4088.872314818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>4088.872314818185</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>4088.872314818185</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>4088.872314818185</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V32" t="n">
-        <v>3757.809427474614</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W32" t="n">
-        <v>3405.0407722045</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X32" t="n">
-        <v>3031.57501394342</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y32" t="n">
-        <v>2641.435681967609</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.8091843452889</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>782.356155064162</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>633.4217454029108</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>474.1842903974552</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>327.6497324243403</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>191.2866322569589</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>100.7847378948266</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>81.77744629636371</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>175.4547157869813</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>413.7189147673284</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>780.4170750799938</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M33" t="n">
-        <v>1227.69340030231</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1701.216443856764</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.177723274819</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.677314750922</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2580.318872397522</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2580.174518990037</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.736632483517</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2258.093632161373</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2030.025785295788</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.873677064046</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.636320335844</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.784820130311</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1125.024521365357</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2625.237194829194</v>
+        <v>2305.890180115017</v>
       </c>
       <c r="C34" t="n">
-        <v>2456.301011901287</v>
+        <v>2305.890180115017</v>
       </c>
       <c r="D34" t="n">
-        <v>2306.184372488952</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E34" t="n">
-        <v>2228.089883161876</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F34" t="n">
-        <v>2228.089883161876</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G34" t="n">
-        <v>2228.089883161876</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H34" t="n">
-        <v>2228.089883161876</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I34" t="n">
-        <v>2228.089883161876</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J34" t="n">
-        <v>2273.212515608811</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K34" t="n">
-        <v>2477.199698557688</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L34" t="n">
-        <v>2793.759497006184</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M34" t="n">
-        <v>3137.916542605733</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N34" t="n">
-        <v>3479.324919311598</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O34" t="n">
-        <v>3778.654518232011</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P34" t="n">
-        <v>4011.26201866567</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q34" t="n">
-        <v>4088.872314818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R34" t="n">
-        <v>4088.872314818185</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S34" t="n">
-        <v>4088.872314818185</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T34" t="n">
-        <v>4088.872314818185</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="U34" t="n">
-        <v>3799.769447943829</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="V34" t="n">
-        <v>3545.084959737942</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="W34" t="n">
-        <v>3255.667789700981</v>
+        <v>2754.672310156564</v>
       </c>
       <c r="X34" t="n">
-        <v>3027.678238802964</v>
+        <v>2526.682759258547</v>
       </c>
       <c r="Y34" t="n">
-        <v>2806.885659659434</v>
+        <v>2305.890180115017</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2005.586939522201</v>
+        <v>1204.726236768953</v>
       </c>
       <c r="C35" t="n">
-        <v>1636.624422581789</v>
+        <v>835.7637198285415</v>
       </c>
       <c r="D35" t="n">
-        <v>1278.358723975039</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6947,40 +6949,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3135.094766832249</v>
+        <v>3292.293186409815</v>
       </c>
       <c r="U35" t="n">
-        <v>3135.094766832249</v>
+        <v>3038.762709683652</v>
       </c>
       <c r="V35" t="n">
-        <v>3135.094766832249</v>
+        <v>2707.699822340081</v>
       </c>
       <c r="W35" t="n">
-        <v>2782.326111562134</v>
+        <v>2354.931167069967</v>
       </c>
       <c r="X35" t="n">
-        <v>2782.326111562134</v>
+        <v>1981.465408808887</v>
       </c>
       <c r="Y35" t="n">
-        <v>2392.186779586323</v>
+        <v>1591.326076833075</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7047,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>463.6594280995014</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C37" t="n">
-        <v>294.7232451715945</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D37" t="n">
-        <v>144.6066057592588</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U37" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V37" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W37" t="n">
-        <v>1094.090022971289</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X37" t="n">
-        <v>866.1004720732712</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y37" t="n">
-        <v>645.3078929297411</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1698.509627919559</v>
+        <v>1519.109083729354</v>
       </c>
       <c r="C38" t="n">
-        <v>1329.547110979147</v>
+        <v>1150.146566788942</v>
       </c>
       <c r="D38" t="n">
-        <v>971.2814123723965</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="E38" t="n">
-        <v>775.0816216130238</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F38" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180638</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919559</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y38" t="n">
-        <v>1698.509627919559</v>
+        <v>1905.708923793476</v>
       </c>
     </row>
     <row r="39">
@@ -7242,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.613680441807</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959802</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="H40" t="n">
-        <v>163.837793613838</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7357,25 +7359,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U40" t="n">
-        <v>1837.464090846021</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V40" t="n">
-        <v>1582.779602640134</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W40" t="n">
-        <v>1582.779602640134</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X40" t="n">
-        <v>1494.054724415577</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y40" t="n">
-        <v>1273.262145272047</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="41">
@@ -7397,28 +7399,28 @@
         <v>477.498021221791</v>
       </c>
       <c r="F41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7433,28 +7435,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V41" t="n">
-        <v>2994.542934265599</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W41" t="n">
-        <v>2641.774278995485</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.308520734405</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.169188758593</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7487,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7494,7 +7496,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2429.265776557363</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C43" t="n">
-        <v>2320.988771034577</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D43" t="n">
-        <v>2170.872131622242</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E43" t="n">
-        <v>2022.959038039849</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>1876.069090541939</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>1562.149067134515</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U43" t="n">
-        <v>2946.672497492341</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V43" t="n">
-        <v>2946.672497492341</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W43" t="n">
-        <v>2657.255327455381</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X43" t="n">
-        <v>2429.265776557363</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y43" t="n">
-        <v>2429.265776557363</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1617.939223126803</v>
+        <v>1859.132475219474</v>
       </c>
       <c r="C44" t="n">
-        <v>1617.939223126803</v>
+        <v>1490.169958279063</v>
       </c>
       <c r="D44" t="n">
-        <v>1617.939223126803</v>
+        <v>1131.904259672312</v>
       </c>
       <c r="E44" t="n">
-        <v>1232.150970528558</v>
+        <v>746.116007074068</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389509</v>
+        <v>335.1301022844604</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450753</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180638</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.509627919559</v>
+        <v>2635.871647259408</v>
       </c>
       <c r="Y44" t="n">
-        <v>1617.939223126803</v>
+        <v>2245.732315283596</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7758,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1091.613680441807</v>
+        <v>1926.656506942677</v>
       </c>
       <c r="C46" t="n">
-        <v>922.6774975139006</v>
+        <v>1926.656506942677</v>
       </c>
       <c r="D46" t="n">
-        <v>772.5608581015648</v>
+        <v>1926.656506942677</v>
       </c>
       <c r="E46" t="n">
-        <v>624.6477645191717</v>
+        <v>1778.743413360284</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>1778.743413360284</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959802</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="H46" t="n">
-        <v>163.837793613838</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088493</v>
+        <v>2822.322864763051</v>
       </c>
       <c r="U46" t="n">
-        <v>1927.294548088493</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V46" t="n">
-        <v>1927.294548088493</v>
+        <v>2278.535509682808</v>
       </c>
       <c r="W46" t="n">
-        <v>1722.044275313594</v>
+        <v>1989.118339645847</v>
       </c>
       <c r="X46" t="n">
-        <v>1494.054724415577</v>
+        <v>1926.656506942677</v>
       </c>
       <c r="Y46" t="n">
-        <v>1273.262145272047</v>
+        <v>1926.656506942677</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.6212302161014</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7991,13 +7993,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>229.0792162728553</v>
+        <v>235.5659072745482</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.18584954740879</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>26.67158752742958</v>
+        <v>20.72114122105287</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8222,13 +8224,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>407.7609788880693</v>
+        <v>98.93303561408928</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8292,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>43.39875231298058</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O6" t="n">
-        <v>369.9956874605992</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8468,13 +8470,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>294.1364459467771</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>8.58688632097784</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>294.834493518473</v>
+        <v>271.4317989632634</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>36.20996526433474</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9638,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>317.5146261106135</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,10 +9652,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9890,10 +9892,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>109.6126099087</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10127,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>308.4287049463865</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10364,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>52.34641664788623</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23309,7 +23311,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -23321,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>168.06888189215</v>
+        <v>168.0688818921491</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23425,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>33.50229141006302</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>113.7908987761685</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>226.0923498002235</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23504,10 +23506,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>162.97892386822</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>21.59472895491429</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23747,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>141.1380987416017</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23786,13 +23788,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>77.43728678753547</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>83.0140681584636</v>
       </c>
       <c r="Y19" t="n">
-        <v>92.48912964370405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23981,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -24020,7 +24022,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.6278626471066</v>
+        <v>194.8187766984398</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24029,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>75.50340795433958</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -24184,10 +24186,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>94.35543628911083</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24221,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>126.4919521192238</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,16 +24417,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>142.2354048423638</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24455,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>106.001820158167</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24497,16 +24499,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>19.35143516696735</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.0742887270133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>54.33552810675519</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24695,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -24737,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>128.5391969551434</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>49.33295317258296</v>
       </c>
     </row>
     <row r="30">
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24914,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>104.540957368312</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>234.2939374761832</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>14.94760501036552</v>
       </c>
       <c r="E34" t="n">
-        <v>69.12041821276375</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25160,13 +25162,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -25205,19 +25207,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>15.31202591046801</v>
+        <v>170.9384612922586</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>69.12041821276456</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25397,10 +25399,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>187.6925772204828</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>278.259509643434</v>
       </c>
     </row>
     <row r="39">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>21.5947289549143</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>137.872025946726</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.95568926599833</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>108.8976542956624</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>60.05258563107004</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -25840,10 +25842,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>186.5668494326252</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25919,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>306.4732379112253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>163.8724410128994</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1021079.392092191</v>
+        <v>1003565.129815169</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1001369.976556512</v>
+        <v>1003565.129815169</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>956239.4024951202</v>
+        <v>973079.5882091231</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>790392.767283241</v>
+        <v>790392.7672832411</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>790392.767283241</v>
+        <v>790392.7672832411</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>790392.7672832409</v>
+        <v>790392.767283241</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>790392.767283241</v>
+        <v>790392.7672832409</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>947999.2666190811</v>
+        <v>790392.7672832411</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>873215.652450863</v>
+        <v>790392.767283241</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>873215.652450863</v>
+        <v>790392.7672832409</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>873215.652450863</v>
+        <v>790392.767283241</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>790392.767283241</v>
+        <v>790392.7672832411</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>790392.767283241</v>
+        <v>790392.7672832409</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185701</v>
+      </c>
+      <c r="C2" t="n">
+        <v>492625.0619185703</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
-      <c r="C2" t="n">
-        <v>492625.0619185701</v>
-      </c>
-      <c r="D2" t="n">
-        <v>492625.0619185701</v>
-      </c>
       <c r="E2" t="n">
-        <v>409196.518765105</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="F2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="G2" t="n">
         <v>409196.5187651048</v>
       </c>
       <c r="H2" t="n">
-        <v>409196.5187651047</v>
+        <v>409196.5187651046</v>
       </c>
       <c r="I2" t="n">
-        <v>476498.1442643799</v>
+        <v>409196.5187651048</v>
       </c>
       <c r="J2" t="n">
-        <v>444563.8089708405</v>
+        <v>409196.5187651048</v>
       </c>
       <c r="K2" t="n">
-        <v>444563.8089708405</v>
+        <v>409196.5187651048</v>
       </c>
       <c r="L2" t="n">
-        <v>444563.8089708405</v>
+        <v>409196.5187651048</v>
       </c>
       <c r="M2" t="n">
+        <v>409196.5187651048</v>
+      </c>
+      <c r="N2" t="n">
+        <v>409196.5187651049</v>
+      </c>
+      <c r="O2" t="n">
         <v>409196.5187651046</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>409196.5187651048</v>
-      </c>
-      <c r="O2" t="n">
-        <v>409196.5187651045</v>
-      </c>
-      <c r="P2" t="n">
-        <v>409196.5187651047</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>636676.8635708593</v>
+        <v>792647.4137109849</v>
       </c>
       <c r="C3" t="n">
-        <v>141633.8695063272</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230265</v>
+        <v>193747.2377198155</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>268521.3695157152</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>96558.96659736053</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>122525.2635793585</v>
+        <v>172360.9924002809</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>43022.56888020198</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221474.5305694301</v>
+        <v>189891.8124216188</v>
       </c>
       <c r="C4" t="n">
-        <v>192595.4405388937</v>
+        <v>189891.8124216188</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.726831625</v>
+        <v>150202.599217379</v>
       </c>
       <c r="E4" t="n">
-        <v>6720.683277029937</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="F4" t="n">
-        <v>6720.683277029939</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="G4" t="n">
-        <v>6720.683277029939</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="H4" t="n">
-        <v>6720.683277029939</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="I4" t="n">
-        <v>35504.07070869963</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="J4" t="n">
-        <v>21846.47569063152</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="K4" t="n">
-        <v>21846.47569063152</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="L4" t="n">
-        <v>21846.47569063152</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="M4" t="n">
-        <v>6720.683277029939</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="N4" t="n">
-        <v>6720.683277029939</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="O4" t="n">
-        <v>6720.683277029919</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="P4" t="n">
-        <v>6720.683277029939</v>
+        <v>6720.683277029938</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82122.19268312669</v>
+        <v>86618.07783747558</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905216</v>
+        <v>86618.07783747558</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>91549.9096177734</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26488,28 +26490,28 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>85907.99125817031</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>85907.99125817031</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>85907.99125817031</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-447648.5249048461</v>
+        <v>-576532.2420515092</v>
       </c>
       <c r="C6" t="n">
-        <v>72882.81509429711</v>
+        <v>216115.1716594758</v>
       </c>
       <c r="D6" t="n">
-        <v>-23907.44687592608</v>
+        <v>57125.31536360204</v>
       </c>
       <c r="E6" t="n">
-        <v>146096.5151094912</v>
+        <v>59648.12541096646</v>
       </c>
       <c r="F6" t="n">
         <v>328169.4949266816</v>
       </c>
       <c r="G6" t="n">
+        <v>328169.4949266816</v>
+      </c>
+      <c r="H6" t="n">
+        <v>328169.4949266814</v>
+      </c>
+      <c r="I6" t="n">
         <v>328169.4949266815</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
+        <v>155808.5025264007</v>
+      </c>
+      <c r="K6" t="n">
+        <v>328169.4949266816</v>
+      </c>
+      <c r="L6" t="n">
         <v>328169.4949266815</v>
       </c>
-      <c r="I6" t="n">
-        <v>248051.5887046061</v>
-      </c>
-      <c r="J6" t="n">
-        <v>214284.0784426801</v>
-      </c>
-      <c r="K6" t="n">
-        <v>336809.3420220387</v>
-      </c>
-      <c r="L6" t="n">
-        <v>336809.3420220386</v>
-      </c>
       <c r="M6" t="n">
+        <v>285146.9260464796</v>
+      </c>
+      <c r="N6" t="n">
+        <v>328169.4949266816</v>
+      </c>
+      <c r="O6" t="n">
         <v>328169.4949266814</v>
-      </c>
-      <c r="N6" t="n">
-        <v>328169.4949266815</v>
-      </c>
-      <c r="O6" t="n">
-        <v>328169.4949266813</v>
       </c>
       <c r="P6" t="n">
         <v>328169.4949266815</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>437.9373803414835</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>819.7069159480568</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
@@ -26808,28 +26810,28 @@
         <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>1194.51293060493</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>1022.218078704546</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>1022.218078704546</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
-        <v>1022.218078704546</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>437.9373803414835</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>155.5387199965816</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>340.588791779474</v>
+        <v>226.2308156099918</v>
       </c>
       <c r="E3" t="n">
-        <v>155.711808475759</v>
+        <v>270.0697846452414</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022539</v>
+        <v>172.6399611571322</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>363.1114752026374</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>468.289980199655</v>
+        <v>658.7614942451609</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>172.6399611571322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>172.6399611571322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>307.9060807055221</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2048087252141</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>6.966924834523581</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27506,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>113.9807810707027</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46.68262519833803</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>33.26127215770939</v>
       </c>
       <c r="H4" t="n">
-        <v>155.2058158193417</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7013461703791</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>141.784567062924</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>210.2538774121424</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>224.571317809257</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2759535485885</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,22 +27618,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>353.1661342247979</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>84.12971568086346</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27746,7 +27748,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>70.53999045278907</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>123.266557879417</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>111.1188259049281</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>220.7250733900931</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>269.4621187624944</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>133.9283254770339</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.6706554955379</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0820285730592</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>124.4181059863378</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>166.5128193460934</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>149.0849862156822</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>110.8299420939058</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>198.2563003669325</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>221.6298148299932</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>11.21417860460315</v>
       </c>
       <c r="V10" t="n">
-        <v>55.73584717546876</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.760552282779832</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H2" t="n">
-        <v>18.03025606601896</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I2" t="n">
-        <v>67.87369188186953</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J2" t="n">
-        <v>149.4246743105849</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K2" t="n">
-        <v>223.9488524406552</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L2" t="n">
-        <v>277.8283543647785</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M2" t="n">
-        <v>309.1375760236644</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N2" t="n">
-        <v>314.1397451971126</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O2" t="n">
-        <v>296.6332534352206</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P2" t="n">
-        <v>253.1696189540935</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q2" t="n">
-        <v>190.1198403270407</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R2" t="n">
-        <v>110.5912923331687</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>40.11858514384546</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T2" t="n">
-        <v>7.706817617868718</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1408441826223865</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9419785162062099</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H3" t="n">
-        <v>9.097529353886291</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>32.432155053591</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J3" t="n">
-        <v>88.99631235788583</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K3" t="n">
-        <v>152.1088729437019</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L3" t="n">
-        <v>204.5291510736334</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M3" t="n">
-        <v>238.6758722861085</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N3" t="n">
-        <v>244.9929124232984</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O3" t="n">
-        <v>224.1206516168345</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P3" t="n">
-        <v>179.8765817481841</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q3" t="n">
-        <v>120.2427312967787</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>58.48529769918908</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S3" t="n">
-        <v>17.49683779005831</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>3.796834457866257</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06197227080304014</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7897231448780849</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>7.021356688097887</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I4" t="n">
-        <v>23.74912875687914</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J4" t="n">
-        <v>55.8334263428806</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K4" t="n">
-        <v>91.7514708321993</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L4" t="n">
-        <v>117.41029373942</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M4" t="n">
-        <v>123.7926926102983</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N4" t="n">
-        <v>120.8491790702983</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O4" t="n">
-        <v>111.6237768778588</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P4" t="n">
-        <v>95.5134247223458</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.12854443156401</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R4" t="n">
-        <v>35.50882431424552</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S4" t="n">
-        <v>13.76272062482989</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T4" t="n">
-        <v>3.374271619024544</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04307580790244105</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31394,7 +31396,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U6" t="n">
         <v>0.08398246702897151</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.295304184715804</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>33.74803398172073</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>127.0422145812561</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>279.6848235475232</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>419.1750496865433</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>520.0237151295396</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>578.6265809244793</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>587.9893639393031</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>555.2216829525353</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>473.8688608923638</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>355.855779777229</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>206.9986514931543</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>75.09174410921145</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>14.42519406859344</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2636243347772643</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>1.763143177699594</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>17.02825121620398</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>60.70471028483252</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>166.5783648720481</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>284.7089577779208</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>382.8263290000807</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>446.7402691916909</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>458.5641548000361</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>419.4966138625871</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>336.6830160994953</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>225.0636800165306</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>109.4695386996292</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>32.74961121735866</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>7.106704299587395</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1159962616907628</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.478160012365348</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>13.14218629175738</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>44.45230291731431</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>104.5059128742301</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>171.735317800265</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>219.7620803838446</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>231.7083008474154</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>226.1987953467811</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>208.9311988386949</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>178.7767345864417</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>123.7757443081566</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>66.46344928326373</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>25.76029767003974</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>6.315774598288304</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.08062690976538273</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32321,7 +32323,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32555,7 +32557,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -32789,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -32804,7 +32806,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33044,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33272,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33503,7 +33505,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34214,7 +34216,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34372,7 +34374,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623184</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
         <v>769.2673490574995</v>
@@ -34457,7 +34459,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K2" t="n">
-        <v>328.0044139668394</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L2" t="n">
-        <v>459.7231539452417</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M2" t="n">
-        <v>528.3048762892241</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0736060125058</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O2" t="n">
-        <v>447.3352232762793</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P2" t="n">
-        <v>251.0158394716792</v>
+        <v>347.4187610619487</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>88.24972103162797</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>278.7326709819215</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L3" t="n">
-        <v>436.8151165972184</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M3" t="n">
-        <v>562.2469021140901</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N3" t="n">
-        <v>140.3227878673947</v>
+        <v>221.3845166277849</v>
       </c>
       <c r="O3" t="n">
-        <v>475.3867264491196</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P3" t="n">
-        <v>364.364942973791</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q3" t="n">
-        <v>190.3382449466062</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>69.48197900631645</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L4" t="n">
-        <v>145.0003189997362</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M4" t="n">
-        <v>163.3765695721389</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N4" t="n">
-        <v>164.9813514495269</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O4" t="n">
-        <v>136.2089047918985</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P4" t="n">
-        <v>92.79198398723929</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34942,13 +34944,13 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>596.346244368279</v>
+        <v>287.518301094299</v>
       </c>
       <c r="N5" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
         <v>111.8528537874005</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>37.16554713105221</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O6" t="n">
-        <v>531.1192356108625</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>98.63891902083691</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>523.2306112127275</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>284.2573001595524</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>348.2803476972066</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>358.5763003427122</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>325.1234715308485</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>536.7723110838714</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>133.5500899027795</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>165.8317735457902</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>146.8675188035618</v>
       </c>
       <c r="L9" t="n">
-        <v>592.5148541563232</v>
+        <v>515.7037481834699</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>304.6062352696726</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>327.2224427167027</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>276.9003694181427</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>521.1713773251022</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>295.1591936663582</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>11.14673275755733</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>149.4658259743821</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>247.3521056441608</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>271.292177809256</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>270.3309677260097</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>233.5163267527346</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>176.0552938513352</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>37.61370105646219</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,7 +35971,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -36203,7 +36205,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36358,10 +36360,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>654.705912666014</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36370,10 +36372,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36437,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36452,7 +36454,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36595,7 +36597,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
@@ -36610,10 +36612,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4069147124195</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36692,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36847,13 +36849,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>707.1906911657584</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
@@ -37084,13 +37086,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>111.959615190111</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37312,7 +37314,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.921115830226</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037185</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37862,7 +37864,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -38020,7 +38022,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923311</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38105,7 +38107,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
